--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0016-031 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0016-031 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2066DDFE-35D8-43AC-B420-B85AE6CA64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A6FE22-526E-4C6E-86AB-1D92F549C277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0257" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,9 +86,6 @@
     <t>Searching profiling nasabah &amp; memiliki sales kelolaan</t>
   </si>
   <si>
-    <t>DGS-272</t>
-  </si>
-  <si>
     <t>1. login dengan npp sales 2. masukan cif ke dalam filed serch profiling. dengan syarat : -Add family tree
 -Nasabah usulan tidak dalam proses usulan
 -Sales Inputer = Sales Kelolaaan Nasabah Utama
@@ -103,6 +100,9 @@
   <si>
     <t xml:space="preserve"> -	Status belum terverivikasi
 -	Verifikasi debitur “tidak sesuai”</t>
+  </si>
+  <si>
+    <t>SCD0016-031</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -181,18 +181,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,14 +513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -529,99 +541,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="153" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="F2" s="15">
         <v>55210</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12">
         <v>10191409791</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="13">
         <v>9166244046</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="10"/>
       <c r="P2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="7"/>
       <c r="I3" s="3"/>
       <c r="O3" s="1"/>
@@ -629,15 +641,15 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="7"/>
       <c r="I4" s="3"/>
-      <c r="N4" s="13"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="1"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
